--- a/my/2017.09.11-商城-项目/web-1707-商场项目分组.xlsx
+++ b/my/2017.09.11-商城-项目/web-1707-商场项目分组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>组长</t>
   </si>
@@ -27,6 +27,9 @@
     <t>git</t>
   </si>
   <si>
+    <t>周六休息</t>
+  </si>
+  <si>
     <t>叶家辉</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
     <t xml:space="preserve">https://github.com/Y-J-H/four.git </t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>关帅杰</t>
   </si>
   <si>
@@ -115,6 +121,12 @@
   </si>
   <si>
     <t>https://github.com/Mannerbu/Wbi.git</t>
+  </si>
+  <si>
+    <t>李伟民</t>
+  </si>
+  <si>
+    <t>没有参与</t>
   </si>
 </sst>
 </file>
@@ -122,12 +134,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +171,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -167,25 +194,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,35 +252,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -256,47 +307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,61 +331,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,115 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,32 +525,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,26 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,11 +593,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,152 +627,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +786,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,15 +1145,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:12">
+    <row r="1" ht="42" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,18 +1172,21 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="40" customHeight="1" spans="1:12">
+    <row r="2" ht="40" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1163,18 +1195,21 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="M2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1184,17 +1219,17 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" ht="42" customHeight="1" spans="1:12">
+    <row r="4" ht="42" customHeight="1" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1203,18 +1238,21 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
+      <c r="M4" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" ht="40" customHeight="1" spans="1:12">
+    <row r="5" ht="40" customHeight="1" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1223,18 +1261,21 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1244,17 +1285,17 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" ht="39" customHeight="1" spans="1:12">
+    <row r="7" ht="39" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1263,18 +1304,21 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" ht="39" customHeight="1" spans="1:12">
+    <row r="8" ht="39" customHeight="1" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1283,18 +1327,21 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" ht="41" customHeight="1" spans="1:12">
+    <row r="9" ht="41" customHeight="1" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1303,18 +1350,21 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" ht="41" customHeight="1" spans="1:12">
+    <row r="10" ht="41" customHeight="1" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1323,18 +1373,21 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1344,8 +1397,27 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
+    <row r="12" ht="42" customHeight="1" spans="1:13">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="B2:D2"/>
@@ -1368,6 +1440,8 @@
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:L11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:L12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://github.com/Y-J-H/four.git " tooltip="https://github.com/Y-J-H/four.git "/>
